--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem1/123/word_level_predictions_123.xlsx
@@ -4766,156 +4766,156 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" t="n">
         <v>8</v>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Locating</t>
         </is>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" t="n">
         <v>2</v>
       </c>
-      <c r="E84" s="2" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" t="n">
         <v>8</v>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D85" s="2" t="n">
+      <c r="D85" t="n">
         <v>3</v>
       </c>
-      <c r="E85" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" s="2" t="inlineStr">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" t="n">
         <v>8</v>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C86" s="2" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D86" s="2" t="n">
+      <c r="D86" t="n">
         <v>4</v>
       </c>
-      <c r="E86" s="2" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F86" s="2" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G86" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L86" s="2" t="inlineStr">
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9186,210 +9186,210 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" t="n">
         <v>15</v>
       </c>
-      <c r="B169" s="2" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C169" s="2" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D169" s="2" t="n">
+      <c r="D169" t="n">
         <v>5</v>
       </c>
-      <c r="E169" s="2" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F169" s="2" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G169" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L169" s="2" t="inlineStr">
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
+      <c r="A170" t="n">
         <v>15</v>
       </c>
-      <c r="B170" s="2" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C170" s="2" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D170" s="2" t="n">
+      <c r="D170" t="n">
         <v>6</v>
       </c>
-      <c r="E170" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F170" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G170" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L170" s="2" t="inlineStr">
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G170" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" t="n">
         <v>15</v>
       </c>
-      <c r="B171" s="2" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C171" s="2" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D171" s="2" t="n">
+      <c r="D171" t="n">
         <v>7</v>
       </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G171" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L171" s="2" t="inlineStr">
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G171" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" t="n">
         <v>15</v>
       </c>
-      <c r="B172" s="2" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C172" s="2" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" t="n">
         <v>8</v>
       </c>
-      <c r="E172" s="2" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F172" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G172" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9550,574 +9550,574 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11041,11 +11041,11 @@
         </is>
       </c>
       <c r="I204" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K204" s="2" t="b">
@@ -11093,11 +11093,11 @@
         </is>
       </c>
       <c r="I205" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K205" s="2" t="b">
@@ -11145,11 +11145,11 @@
         </is>
       </c>
       <c r="I206" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K206" s="2" t="b">
@@ -11197,11 +11197,11 @@
         </is>
       </c>
       <c r="I207" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K207" s="2" t="b">
@@ -11237,7 +11237,7 @@
       </c>
       <c r="F208" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G208" s="2" t="b">
@@ -11249,11 +11249,11 @@
         </is>
       </c>
       <c r="I208" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K208" s="2" t="b">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="L208" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11318,158 +11318,158 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>19</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" s="2" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>19</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>19</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>2</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="L213" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G214" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G215" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G216" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem1/123/word_level_predictions_123.xlsx
@@ -4766,156 +4766,156 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>Locating</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E84" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E86" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F86" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="G86" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9186,210 +9186,210 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C169" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E169" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="F169" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G169" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I169" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K169" t="b">
-        <v>1</v>
-      </c>
-      <c r="L169" t="inlineStr">
+      <c r="G169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
+      <c r="A170" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C170" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D170" t="n">
+      <c r="D170" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G170" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I170" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K170" t="b">
-        <v>1</v>
-      </c>
-      <c r="L170" t="inlineStr">
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G170" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G171" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I171" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K171" t="b">
-        <v>1</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G171" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="E172" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G172" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9550,574 +9550,574 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>2</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" t="n">
         <v>16</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" t="n">
         <v>3</v>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>16</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" t="n">
         <v>4</v>
       </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>16</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>5</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>16</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>6</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>16</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>7</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>16</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>8</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>16</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>9</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>16</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>10</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>16</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>11</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>16</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>12</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11041,11 +11041,11 @@
         </is>
       </c>
       <c r="I204" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K204" s="2" t="b">
@@ -11093,11 +11093,11 @@
         </is>
       </c>
       <c r="I205" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K205" s="2" t="b">
@@ -11145,11 +11145,11 @@
         </is>
       </c>
       <c r="I206" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K206" s="2" t="b">
@@ -11197,11 +11197,11 @@
         </is>
       </c>
       <c r="I207" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K207" s="2" t="b">
@@ -11237,7 +11237,7 @@
       </c>
       <c r="F208" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G208" s="2" t="b">
@@ -11249,11 +11249,11 @@
         </is>
       </c>
       <c r="I208" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K208" s="2" t="b">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="L208" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11318,158 +11318,158 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="inlineStr">
+      <c r="D210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="D211" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="L213" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G214" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G215" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G216" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
